--- a/predictions/hybrid_pca_predictions.xlsx
+++ b/predictions/hybrid_pca_predictions.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,73 +458,73 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4787151367973168</v>
+        <v>0.5384063876585263</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8288176412351344</v>
+        <v>0.4887213935135469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.740785773343268</v>
+        <v>0.4984424839646611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7429488136974232</v>
+        <v>0.5041102649211344</v>
       </c>
     </row>
     <row r="6">
@@ -535,146 +535,146 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3011058661296394</v>
+        <v>0.4872648194694205</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6947291079395356</v>
+        <v>0.4981730887167014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.662740147019814</v>
+        <v>0.5003528751751439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3957415214872548</v>
+        <v>0.5046020967848253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5815795883440744</v>
+        <v>0.4886298743733877</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2460268921784406</v>
+        <v>0.5179225523238193</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4710286564773276</v>
+        <v>0.5221047883321152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7537977996416102</v>
+        <v>0.4754843377318207</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -686,67 +686,67 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.664629332029507</v>
+        <v>0.5158474376495206</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Detroit Lions</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Pittsburgh Steelers</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Buffalo Bills</t>
-        </is>
-      </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8264699237214925</v>
+        <v>0.5132960078907109</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5194683697962249</v>
+        <v>0.4734172740793264</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5914955906268553</v>
+        <v>0.5014274769057996</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7472447885786685</v>
+        <v>0.4997389852410651</v>
       </c>
     </row>
     <row r="19">
@@ -769,218 +769,218 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5987490962794297</v>
+        <v>0.4991540077942574</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4365542452955914</v>
+        <v>0.4581918476694428</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2135206930027682</v>
+        <v>0.4838691355884452</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Green Bay Packers</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Baltimore Ravens</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Pittsburgh Steelers</t>
-        </is>
-      </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6613065005660279</v>
+        <v>0.5361847490577291</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7626152973063007</v>
+        <v>0.4710645844381826</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6718153766542428</v>
+        <v>0.5064032773974622</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.750985009332897</v>
+        <v>0.4994699867231138</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7159498029445042</v>
+        <v>0.5049689195355521</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4482741130849975</v>
+        <v>0.4917094730530269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8263806515282079</v>
+        <v>0.4508884719385752</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1439826386755035</v>
+        <v>0.5315471943601813</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7015690151741539</v>
+        <v>0.4596201089122933</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -989,280 +989,280 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.489805217418933</v>
+        <v>0.5068800285136665</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5786607058726121</v>
+        <v>0.5000971593841167</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5837359985367457</v>
+        <v>0.4881857453662013</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6609799422482149</v>
+        <v>0.4608557445566122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8315786101425194</v>
+        <v>0.5493831115990225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2374366476001892</v>
+        <v>0.4825171708897339</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6764130605271952</v>
+        <v>0.5439373142704281</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6599797530328785</v>
+        <v>0.5243539536702084</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7791464627776417</v>
+        <v>0.4889100066881634</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7344929444365302</v>
+        <v>0.5186647420592148</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8029324136828853</v>
+        <v>0.4972096575429988</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7433838149743985</v>
+        <v>0.5018201596841417</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4639044510242702</v>
+        <v>0.5426113023384889</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6372660333157111</v>
+        <v>0.5439227377044694</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6089769919851687</v>
+        <v>0.4956642287288625</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6410502665134068</v>
+        <v>0.5381105235820443</v>
       </c>
     </row>
     <row r="47">
@@ -1273,590 +1273,50 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8367764059171036</v>
+        <v>0.4810952061761923</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6892758475075977</v>
+        <v>0.4991980987457572</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4728145151031658</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Washington Commanders</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Philadelphia Eagles</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.4856190913887871</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Los Angeles Chargers</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.6346305251473711</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Tennessee Titans</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Kansas City Chiefs</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.2200166026884949</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>New Orleans Saints</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>New York Jets</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.7652587983339145</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>New York Giants</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Minnesota Vikings</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.6016863449084838</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Baltimore Ravens</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>New England Patriots</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.4879064902241553</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Carolina Panthers</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Tampa Bay Buccaneers</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.4697513986916851</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Cleveland Browns</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Buffalo Bills</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.128286835377988</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Denver Broncos</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Jacksonville Jaguars</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.6849376505272197</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Arizona Cardinals</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Atlanta Falcons</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.5192921649697312</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Houston Texans</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Las Vegas Raiders</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.7337236687554507</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Detroit Lions</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Pittsburgh Steelers</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.7873447753090188</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Miami Dolphins</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Cincinnati Bengals</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.6209164441026709</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Indianapolis Colts</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>San Francisco 49ers</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.5061435564833445</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Washington Commanders</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.4119311003061684</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Minnesota Vikings</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Detroit Lions</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.382518793532183</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Kansas City Chiefs</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Denver Broncos</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.6976329301293434</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Las Vegas Raiders</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>New York Giants</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.5986134032584677</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Los Angeles Chargers</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Houston Texans</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.8119501925136701</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Green Bay Packers</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Baltimore Ravens</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.691933409746046</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Carolina Panthers</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Seattle Seahawks</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.2018250280265826</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Cincinnati Bengals</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Arizona Cardinals</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.4831317969108765</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Tennessee Titans</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>New Orleans Saints</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.4682288299594333</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Indianapolis Colts</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Jacksonville Jaguars</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.6909216021626958</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Miami Dolphins</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Tampa Bay Buccaneers</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.6050932014161934</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>New York Jets</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>New England Patriots</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.2006916824663796</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Cleveland Browns</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Pittsburgh Steelers</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.1324093966923169</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Buffalo Bills</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Philadelphia Eagles</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.7335936226035842</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>San Francisco 49ers</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Chicago Bears</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.579317942563632</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Atlanta Falcons</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Los Angeles Rams</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.4020783412755012</v>
+        <v>0.5564386331302511</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/hybrid_pca_predictions.xlsx
+++ b/predictions/hybrid_pca_predictions.xlsx
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5384063876585263</v>
+        <v>0.5224089492919877</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4887213935135469</v>
+        <v>0.05346793379164971</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4984424839646611</v>
+        <v>0.1928148357833853</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5041102649211344</v>
+        <v>0.1622197797262909</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4872648194694205</v>
+        <v>0.1164530646275216</v>
       </c>
     </row>
     <row r="7">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4981730887167014</v>
+        <v>0.7189786359051346</v>
       </c>
     </row>
     <row r="8">
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5003528751751439</v>
+        <v>0.3405075779509109</v>
       </c>
     </row>
     <row r="9">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5046020967848253</v>
+        <v>0.4035442946966274</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4886298743733877</v>
+        <v>0.5875736605387843</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5179225523238193</v>
+        <v>0.7539191170245518</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5221047883321152</v>
+        <v>0.6724653949994213</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4754843377318207</v>
+        <v>0.4130369763631875</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5158474376495206</v>
+        <v>0.8566938781689506</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5132960078907109</v>
+        <v>0.5350776907514587</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4734172740793264</v>
+        <v>0.2194665035703925</v>
       </c>
     </row>
     <row r="17">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5014274769057996</v>
+        <v>0.2839788186421354</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4997389852410651</v>
+        <v>0.4214600720225786</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4991540077942574</v>
+        <v>0.4726430697686028</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4581918476694428</v>
+        <v>0.1753210991973831</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4838691355884452</v>
+        <v>0.3430851417457589</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5361847490577291</v>
+        <v>0.6814860075287087</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4710645844381826</v>
+        <v>0.1529615361683906</v>
       </c>
     </row>
     <row r="24">
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5064032773974622</v>
+        <v>0.2796500698685587</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4994699867231138</v>
+        <v>0.1751927649632402</v>
       </c>
     </row>
     <row r="26">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5049689195355521</v>
+        <v>0.285062567305792</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4917094730530269</v>
+        <v>0.4769332991020206</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4508884719385752</v>
+        <v>0.1248631480793064</v>
       </c>
     </row>
     <row r="29">
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5315471943601813</v>
+        <v>0.5191615702080846</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4596201089122933</v>
+        <v>0.344626024746535</v>
       </c>
     </row>
     <row r="31">
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5068800285136665</v>
+        <v>0.4484590674112255</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5000971593841167</v>
+        <v>0.742536086640561</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4881857453662013</v>
+        <v>0.1404297445956508</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4608557445566122</v>
+        <v>0.1517662380094652</v>
       </c>
     </row>
     <row r="35">
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5493831115990225</v>
+        <v>0.8679707707472764</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4825171708897339</v>
+        <v>0.2981665168296947</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5439373142704281</v>
+        <v>0.7272128687317856</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5243539536702084</v>
+        <v>0.7452467764189785</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4889100066881634</v>
+        <v>0.1789677327648747</v>
       </c>
     </row>
     <row r="40">
@@ -1151,10 +1151,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5186647420592148</v>
+        <v>0.4005172546844303</v>
       </c>
     </row>
     <row r="41">
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4972096575429988</v>
+        <v>0.6731047751413147</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5018201596841417</v>
+        <v>0.5228099320666804</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5426113023384889</v>
+        <v>0.8717630636676866</v>
       </c>
     </row>
     <row r="44">
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5439227377044694</v>
+        <v>0.7894012744015866</v>
       </c>
     </row>
     <row r="45">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4956642287288625</v>
+        <v>0.5296866409084169</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5381105235820443</v>
+        <v>0.8024705896301483</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4810952061761923</v>
+        <v>0.2868161318068595</v>
       </c>
     </row>
     <row r="48">
@@ -1295,10 +1295,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4991980987457572</v>
+        <v>0.5863925254753707</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5564386331302511</v>
+        <v>0.9062319982473641</v>
       </c>
     </row>
   </sheetData>
